--- a/parabolic/2025/07/08/parabolic.xlsx
+++ b/parabolic/2025/07/08/parabolic.xlsx
@@ -98,6 +98,7 @@
       <color theme="1"/>
       <name val="Noto Sans CJK JP"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -129,12 +130,24 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F9D4"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -178,16 +191,40 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -200,6 +237,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFF6F9D4"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -386,244 +483,245 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="3.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="6.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="3.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="24.22"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="0" t="n">
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="n">
         <v>480</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="5" t="n">
         <v>278500</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="0" t="s">
+      <c r="E2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="n">
         <v>146</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="5" t="n">
         <v>5605300</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="0" t="s">
+      <c r="E3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="0" t="n">
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="n">
         <v>218</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="5" t="n">
         <v>400000</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="E4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="0" t="n">
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="n">
         <v>913</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="5" t="n">
         <v>128400</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="0" t="s">
+      <c r="E5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="0" t="n">
+      <c r="B6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="8" t="n">
         <v>180</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="8" t="n">
         <v>3420300</v>
       </c>
-      <c r="E6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="0" t="s">
+      <c r="E6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="0" t="n">
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="n">
         <v>164</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="5" t="n">
         <v>192100</v>
       </c>
-      <c r="E7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="0" t="s">
+      <c r="E7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="0" t="n">
+      <c r="B8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8" t="n">
         <v>369</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="8" t="n">
         <v>155800</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="0" t="s">
+      <c r="E8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="0" t="n">
+      <c r="B9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8" t="n">
         <v>423</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="8" t="n">
         <v>1052900</v>
       </c>
-      <c r="E9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="0" t="s">
+      <c r="E9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="0" t="n">
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5" t="n">
         <v>159</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="5" t="n">
         <v>5179100</v>
       </c>
-      <c r="E10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="0" t="s">
+      <c r="E10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>18</v>
       </c>
     </row>
